--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1427,28 +1427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.1362898535108</v>
+        <v>69.96525826267217</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.23043951766788</v>
+        <v>95.72955300430104</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.81406072863066</v>
+        <v>86.59325882286561</v>
       </c>
       <c r="AD2" t="n">
-        <v>49136.2898535108</v>
+        <v>69965.25826267217</v>
       </c>
       <c r="AE2" t="n">
-        <v>67230.43951766788</v>
+        <v>95729.55300430104</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.157072866086672e-06</v>
+        <v>8.718287554483841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.932291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>60814.06072863066</v>
+        <v>86593.25882286561</v>
       </c>
     </row>
     <row r="3">
@@ -1533,28 +1533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.18870142507892</v>
+        <v>70.01766983424028</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.30215134212268</v>
+        <v>95.80126482875586</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.87892847720772</v>
+        <v>86.65812657144266</v>
       </c>
       <c r="AD3" t="n">
-        <v>49188.70142507892</v>
+        <v>70017.66983424028</v>
       </c>
       <c r="AE3" t="n">
-        <v>67302.15134212268</v>
+        <v>95801.26482875585</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.152007758763684e-06</v>
+        <v>8.709724739242946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.932291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>60878.92847720772</v>
+        <v>86658.12657144267</v>
       </c>
     </row>
   </sheetData>
@@ -1830,28 +1830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.36487617843237</v>
+        <v>67.54601186615236</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.80671317817094</v>
+        <v>92.41943335496586</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.62165142925327</v>
+        <v>83.59905234707982</v>
       </c>
       <c r="AD2" t="n">
-        <v>47364.87617843237</v>
+        <v>67546.01186615236</v>
       </c>
       <c r="AE2" t="n">
-        <v>64806.71317817093</v>
+        <v>92419.43335496586</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.466783567475424e-06</v>
+        <v>9.467326622010289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.836805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>58621.65142925327</v>
+        <v>83599.05234707982</v>
       </c>
     </row>
   </sheetData>
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.89061155892777</v>
+        <v>61.12134278435826</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.68482693514395</v>
+        <v>83.62891768086364</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.08402941713751</v>
+        <v>75.64749115134491</v>
       </c>
       <c r="AD2" t="n">
-        <v>42890.61155892778</v>
+        <v>61121.34278435826</v>
       </c>
       <c r="AE2" t="n">
-        <v>58684.82693514395</v>
+        <v>83628.91768086364</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.002354529052176e-06</v>
+        <v>1.135774641395444e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.897569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>53084.02941713751</v>
+        <v>75647.4911513449</v>
       </c>
     </row>
   </sheetData>
@@ -2424,28 +2424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.45990259835679</v>
+        <v>63.45316415630145</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.83200016752414</v>
+        <v>86.81941855465327</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.02627944979658</v>
+        <v>78.53349509963716</v>
       </c>
       <c r="AD2" t="n">
-        <v>44459.90259835679</v>
+        <v>63453.16415630146</v>
       </c>
       <c r="AE2" t="n">
-        <v>60832.00016752414</v>
+        <v>86819.41855465327</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.905993856726895e-06</v>
+        <v>1.075943817403945e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.784722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>55026.27944979658</v>
+        <v>78533.49509963716</v>
       </c>
     </row>
   </sheetData>
@@ -2721,28 +2721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.68747017558938</v>
+        <v>68.20751876370319</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.35283286758076</v>
+        <v>93.32453627581911</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.73389583602631</v>
+        <v>84.41777351548707</v>
       </c>
       <c r="AD2" t="n">
-        <v>50687.47017558938</v>
+        <v>68207.51876370319</v>
       </c>
       <c r="AE2" t="n">
-        <v>69352.83286758076</v>
+        <v>93324.53627581912</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.905423416010766e-06</v>
+        <v>1.157272716519468e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>62733.89583602631</v>
+        <v>84417.77351548708</v>
       </c>
     </row>
   </sheetData>
@@ -3018,28 +3018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.81139305691465</v>
+        <v>68.16280603694653</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.41765727024448</v>
+        <v>93.2633583504844</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.17428787464491</v>
+        <v>84.36243432548252</v>
       </c>
       <c r="AD2" t="n">
-        <v>47811.39305691465</v>
+        <v>68162.80603694654</v>
       </c>
       <c r="AE2" t="n">
-        <v>65417.65727024448</v>
+        <v>93263.3583504844</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.394942762903031e-06</v>
+        <v>9.281897637976136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>59174.28787464491</v>
+        <v>84362.43432548252</v>
       </c>
     </row>
   </sheetData>
@@ -3315,28 +3315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.9394191550906</v>
+        <v>67.08911877491235</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.32931645965297</v>
+        <v>91.79429207083101</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.80806239755653</v>
+        <v>83.03357366971132</v>
       </c>
       <c r="AD2" t="n">
-        <v>49939.4191550906</v>
+        <v>67089.11877491235</v>
       </c>
       <c r="AE2" t="n">
-        <v>68329.31645965297</v>
+        <v>91794.29207083101</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.754747441072158e-06</v>
+        <v>1.153631417249288e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>61808.06239755652</v>
+        <v>83033.57366971132</v>
       </c>
     </row>
   </sheetData>
@@ -3612,28 +3612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.93310261384098</v>
+        <v>65.56160610247062</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.84769742170631</v>
+        <v>89.70428184329424</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.84960138708912</v>
+        <v>81.14303108494222</v>
       </c>
       <c r="AD2" t="n">
-        <v>45933.10261384098</v>
+        <v>65561.60610247061</v>
       </c>
       <c r="AE2" t="n">
-        <v>62847.69742170631</v>
+        <v>89704.28184329424</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.716594746970414e-06</v>
+        <v>1.012451407931807e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.776041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>56849.60138708912</v>
+        <v>81143.03108494222</v>
       </c>
     </row>
   </sheetData>
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.85297034767137</v>
+        <v>66.85735373532238</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.10630103683272</v>
+        <v>91.47718091891224</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.98808563964952</v>
+        <v>82.74672716106328</v>
       </c>
       <c r="AD2" t="n">
-        <v>46852.97034767138</v>
+        <v>66857.35373532238</v>
       </c>
       <c r="AE2" t="n">
-        <v>64106.30103683272</v>
+        <v>91477.18091891224</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.560318821648208e-06</v>
+        <v>9.696710502338992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>57988.08563964952</v>
+        <v>82746.72716106327</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.8113440147918</v>
+        <v>69.48619466249023</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.78583428553412</v>
+        <v>95.07407705173803</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.41188799584425</v>
+        <v>86.00034057524873</v>
       </c>
       <c r="AD2" t="n">
-        <v>48811.3440147918</v>
+        <v>69486.19466249023</v>
       </c>
       <c r="AE2" t="n">
-        <v>66785.83428553412</v>
+        <v>95074.07705173803</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.196063521947158e-06</v>
+        <v>8.832963611036106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.932291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>60411.88799584426</v>
+        <v>86000.34057524873</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.00889575256716</v>
+        <v>64.22518847487488</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.583156820983</v>
+        <v>87.87573628663402</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.70574676650455</v>
+        <v>79.48899934982927</v>
       </c>
       <c r="AD2" t="n">
-        <v>45008.89575256716</v>
+        <v>64225.18847487488</v>
       </c>
       <c r="AE2" t="n">
-        <v>61583.156820983</v>
+        <v>87875.73628663403</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.826529038475006e-06</v>
+        <v>1.050661064586688e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.793402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>55705.74676650455</v>
+        <v>79488.99934982928</v>
       </c>
     </row>
   </sheetData>
@@ -4800,28 +4800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.31829493184184</v>
+        <v>61.82173593079408</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.27000219402345</v>
+        <v>84.58722648298149</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.61335637060837</v>
+        <v>76.51434030638379</v>
       </c>
       <c r="AD2" t="n">
-        <v>43318.29493184184</v>
+        <v>61821.73593079409</v>
       </c>
       <c r="AE2" t="n">
-        <v>59270.00219402346</v>
+        <v>84587.2264829815</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.045077649774638e-06</v>
+        <v>1.127818262930874e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.810763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>53613.35637060837</v>
+        <v>76514.34030638379</v>
       </c>
     </row>
   </sheetData>
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.28433344660964</v>
+        <v>60.21797873959481</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.8552904747681</v>
+        <v>82.39289514120998</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.33366275227793</v>
+        <v>74.52943286810684</v>
       </c>
       <c r="AD2" t="n">
-        <v>42284.33344660964</v>
+        <v>60217.97873959481</v>
       </c>
       <c r="AE2" t="n">
-        <v>57855.2904747681</v>
+        <v>82392.89514120997</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.011604504903663e-06</v>
+        <v>1.156053839491319e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>52333.66275227793</v>
+        <v>74529.43286810684</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.3701384942047</v>
+        <v>74.49099788994063</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.55040154453903</v>
+        <v>101.9218696238676</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.10348602872685</v>
+        <v>92.19458943523368</v>
       </c>
       <c r="AD2" t="n">
-        <v>49370.1384942047</v>
+        <v>74490.99788994063</v>
       </c>
       <c r="AE2" t="n">
-        <v>67550.40154453903</v>
+        <v>101921.8696238676</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.368180942291191e-06</v>
+        <v>1.107240636852222e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.756944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>61103.48602872685</v>
+        <v>92194.58943523368</v>
       </c>
     </row>
   </sheetData>
@@ -8032,28 +8032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.19736787114867</v>
+        <v>66.01781981152318</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.20927680531485</v>
+        <v>90.32849356674802</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.17667214180602</v>
+        <v>81.70766891759641</v>
       </c>
       <c r="AD2" t="n">
-        <v>46197.36787114867</v>
+        <v>66017.81981152318</v>
       </c>
       <c r="AE2" t="n">
-        <v>63209.27680531485</v>
+        <v>90328.49356674802</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.704751194632352e-06</v>
+        <v>1.002302280922334e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>57176.67214180602</v>
+        <v>81707.66891759641</v>
       </c>
     </row>
   </sheetData>
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.2067272227331</v>
+        <v>68.72254076756394</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.9585709168295</v>
+        <v>94.02921210266825</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.66357748197711</v>
+        <v>85.05519607044069</v>
       </c>
       <c r="AD2" t="n">
-        <v>48206.7272227331</v>
+        <v>68722.54076756394</v>
       </c>
       <c r="AE2" t="n">
-        <v>65958.5709168295</v>
+        <v>94029.21210266826</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.331189436439493e-06</v>
+        <v>9.115739815789757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.862847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>59663.57748197711</v>
+        <v>85055.19607044068</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.49669612245037</v>
+        <v>81.9104815226918</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.66951620991878</v>
+        <v>112.0735344547091</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.16140799622177</v>
+        <v>101.377393622574</v>
       </c>
       <c r="AD2" t="n">
-        <v>57496.69612245038</v>
+        <v>81910.4815226918</v>
       </c>
       <c r="AE2" t="n">
-        <v>78669.51620991879</v>
+        <v>112073.5344547091</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.543412274608416e-06</v>
+        <v>9.738625156841815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.824652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>71161.40799622177</v>
+        <v>101377.393622574</v>
       </c>
     </row>
   </sheetData>
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.88261109124873</v>
+        <v>62.63909904140726</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.04212445919546</v>
+        <v>85.70557875043738</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.31178837047302</v>
+        <v>77.52595860305132</v>
       </c>
       <c r="AD2" t="n">
-        <v>43882.61109124873</v>
+        <v>62639.09904140727</v>
       </c>
       <c r="AE2" t="n">
-        <v>60042.12445919545</v>
+        <v>85705.57875043739</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.992656453744177e-06</v>
+        <v>1.104106522207939e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.784722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>54311.78837047302</v>
+        <v>77525.95860305132</v>
       </c>
     </row>
   </sheetData>
@@ -9220,28 +9220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.45457762664082</v>
+        <v>64.88210610844531</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.19295842318689</v>
+        <v>88.77455997404523</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.25734975965621</v>
+        <v>80.30204056602119</v>
       </c>
       <c r="AD2" t="n">
-        <v>45454.57762664082</v>
+        <v>64882.10610844531</v>
       </c>
       <c r="AE2" t="n">
-        <v>62192.95842318689</v>
+        <v>88774.55997404523</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.781793839288072e-06</v>
+        <v>1.032875274851511e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.776041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>56257.34975965621</v>
+        <v>80302.04056602118</v>
       </c>
     </row>
   </sheetData>
